--- a/week11/Data Modeling Problems and Solutions.xlsx
+++ b/week11/Data Modeling Problems and Solutions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skillstorm-my.sharepoint.com/personal/ehicks_skillstorm_com/Documents/Java Vettec 20230327/week11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="572" documentId="8_{317F4078-0A23-43B3-A8D5-C2DF025FC3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7491B012-BEE7-4B2F-B22D-FD7E61C01F7C}"/>
+  <xr:revisionPtr revIDLastSave="640" documentId="8_{317F4078-0A23-43B3-A8D5-C2DF025FC3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6E2120B-560C-43B1-A77A-DFBCB1556A4B}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3690" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{B85AF938-923A-4CE0-9D8C-3C45E1B169C4}"/>
+    <workbookView xWindow="-28920" yWindow="-5895" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{B85AF938-923A-4CE0-9D8C-3C45E1B169C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem1" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="191">
   <si>
     <t>student_id</t>
   </si>
@@ -610,6 +610,87 @@
       </rPr>
       <t xml:space="preserve"> (cartesian product)</t>
     </r>
+  </si>
+  <si>
+    <t>employee_id</t>
+  </si>
+  <si>
+    <t>manager_id</t>
+  </si>
+  <si>
+    <t>Meriel</t>
+  </si>
+  <si>
+    <t>Middlehurst</t>
+  </si>
+  <si>
+    <t>Christel</t>
+  </si>
+  <si>
+    <t>Filler</t>
+  </si>
+  <si>
+    <t>Abey</t>
+  </si>
+  <si>
+    <t>L'Homme</t>
+  </si>
+  <si>
+    <t>Eliot</t>
+  </si>
+  <si>
+    <t>de Aguirre</t>
+  </si>
+  <si>
+    <t>Drew</t>
+  </si>
+  <si>
+    <t>Duckels</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <r>
+      <t>self-join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to get the name of the employees and their managers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>self-join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to get the number of employees each manager manages</t>
+    </r>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>manager_first_name</t>
+  </si>
+  <si>
+    <t>Manager_last_name</t>
   </si>
 </sst>
 </file>
@@ -928,7 +1009,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -955,22 +1036,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -980,10 +1051,13 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1748,6 +1822,431 @@
             <a:t>)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" i="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>310928</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>141466</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>4472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36D7FD8D-FF3A-D488-F3EC-65594494672D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2141385" y="4721087"/>
+          <a:ext cx="3731646" cy="1296559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SELECT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> *</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>FROM employees AS e</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>   JOIN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>            employees AS e2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>WHERE </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>    e.manager_id = e2.employee_id</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>310928</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>137656</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>2567</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14949EE7-002F-41ED-A327-8C34284F4DBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2141385" y="4721087"/>
+          <a:ext cx="3727836" cy="1294654"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SELECT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> *</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>FROM employees AS e</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>   JOIN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>            employees AS e2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>WHERE </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>    e.manager_id = e2.employee_id</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>310928</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>131941</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E0D046-FF37-4510-99FA-649C895777A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2141385" y="4721087"/>
+          <a:ext cx="3722121" cy="1290844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SELECT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> *</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>FROM employees AS e</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>   JOIN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>            employees AS e2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> ON </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>    e.manager_id = e2.employee_id</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1494099</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>15323</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E81BE9E1-41E4-4AAB-BC8F-A2BD134A9E5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6957391" y="4919870"/>
+          <a:ext cx="3722121" cy="1290844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SELECT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> *</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>FROM tops</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>  INNER JOIN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>            pants</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>ON </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>    tops.color = pants.color</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2088,10 +2587,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" t="s">
         <v>92</v>
       </c>
       <c r="C4" t="s">
@@ -2102,10 +2601,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
@@ -2116,10 +2615,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
@@ -2130,10 +2629,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" t="s">
         <v>92</v>
       </c>
       <c r="C7" t="s">
@@ -2149,27 +2648,24 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="28" t="s">
+      <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2177,13 +2673,13 @@
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="3">
@@ -2194,13 +2690,13 @@
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3">
@@ -2211,13 +2707,13 @@
       <c r="A16">
         <v>3</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="3">
@@ -2228,13 +2724,13 @@
       <c r="A17">
         <v>4</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="3">
@@ -2459,30 +2955,27 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
+      <c r="A23" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
       <c r="D23" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="28"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I24" t="s">
@@ -2490,16 +2983,16 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="28">
+      <c r="A25">
         <v>1</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="20">
         <v>1</v>
       </c>
       <c r="E25" s="3">
@@ -2516,16 +3009,16 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="28">
+      <c r="A26">
         <v>2</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="20">
         <v>5</v>
       </c>
       <c r="E26" s="3">
@@ -2542,16 +3035,16 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="28">
+      <c r="A27">
         <v>3</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="20">
         <v>4</v>
       </c>
       <c r="E27" s="3">
@@ -2568,16 +3061,16 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="28">
+      <c r="A28">
         <v>4</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="20">
         <v>5</v>
       </c>
       <c r="E28" s="3">
@@ -2594,16 +3087,16 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="28">
+      <c r="A29">
         <v>5</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="20">
         <v>1</v>
       </c>
       <c r="E29" s="3">
@@ -2620,16 +3113,16 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="28">
+      <c r="A30">
         <v>6</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="20">
         <v>1</v>
       </c>
       <c r="E30" s="3">
@@ -2646,16 +3139,16 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="28">
+      <c r="A31">
         <v>7</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="20">
         <v>3</v>
       </c>
       <c r="E31" s="3">
@@ -2666,16 +3159,16 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="28">
+      <c r="A32">
         <v>8</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="20">
         <v>4</v>
       </c>
       <c r="E32" s="3">
@@ -2683,16 +3176,16 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="28">
+      <c r="A33">
         <v>9</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="20">
         <v>1</v>
       </c>
       <c r="E33" s="3">
@@ -2700,16 +3193,16 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="28">
+      <c r="A34">
         <v>10</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="20">
         <v>5</v>
       </c>
       <c r="E34" s="3">
@@ -2733,7 +3226,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" customWidth="1"/>
@@ -2746,7 +3239,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2763,7 +3256,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="28">
+      <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -2780,7 +3273,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="28">
+      <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -2797,7 +3290,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="28">
+      <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -2814,7 +3307,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="33">
+      <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -2834,72 +3327,72 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="24" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="28">
+      <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -2907,140 +3400,140 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="28">
+      <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>3</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="28">
+      <c r="A18">
         <v>3</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="28">
+      <c r="A19">
         <v>3</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="33">
+      <c r="A20">
         <v>4</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="33">
+      <c r="A21">
         <v>4</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="33">
+      <c r="A22">
         <v>4</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3186,16 +3679,16 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="25" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3261,10 +3754,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3316,7 +3809,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -3617,7 +4110,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -3638,7 +4131,7 @@
       <c r="G21" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K21" s="37" t="s">
+      <c r="K21" s="27" t="s">
         <v>151</v>
       </c>
       <c r="L21" s="7" t="s">
@@ -3670,7 +4163,7 @@
       <c r="F22" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="26">
         <v>1</v>
       </c>
       <c r="K22" s="8">
@@ -3705,7 +4198,7 @@
       <c r="F23" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="26">
         <v>2</v>
       </c>
       <c r="K23" s="8">
@@ -3740,7 +4233,7 @@
       <c r="F24" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="26">
         <v>3</v>
       </c>
       <c r="K24" s="8">
@@ -3775,7 +4268,7 @@
       <c r="F25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="26">
         <v>4</v>
       </c>
       <c r="K25" s="8">
@@ -3810,7 +4303,7 @@
       <c r="F26" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="26">
         <v>5</v>
       </c>
       <c r="K26" s="8">
@@ -3845,7 +4338,7 @@
       <c r="F27" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="26">
         <v>6</v>
       </c>
       <c r="K27" s="8">
@@ -3880,7 +4373,7 @@
       <c r="F28" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="26">
         <v>7</v>
       </c>
       <c r="K28" s="8">
@@ -3915,7 +4408,7 @@
       <c r="F29" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="26">
         <v>8</v>
       </c>
       <c r="K29" s="8">
@@ -3950,7 +4443,7 @@
       <c r="F30" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="26">
         <v>9</v>
       </c>
       <c r="K30" s="8">
@@ -3976,8 +4469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8BD3F5-DD67-498C-AE9C-4A5A03B0936F}">
   <dimension ref="A2:H78"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3989,102 +4482,99 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="22">
         <v>44670</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="22">
         <v>44671</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="22">
+      <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="22">
         <v>44670</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="22">
         <v>44670</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="21" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F11" t="s">
@@ -4092,186 +4582,186 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="28">
+      <c r="A12">
         <v>1</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="22">
         <v>44670</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="22">
         <v>44670</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="22">
         <v>44670</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="22">
         <v>44671</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="28">
+      <c r="A16">
         <v>2</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="22">
         <v>44671</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="28">
+      <c r="A17">
         <v>3</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="22">
         <v>44670</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>3</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="22">
         <v>44670</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="28">
+      <c r="A19">
         <v>4</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="22">
         <v>44670</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>4</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="22">
         <v>44670</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>4</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21">
         <v>3</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="22">
         <v>44670</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="31"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="22"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="B23" s="41"/>
+      <c r="B23" s="32"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="21" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4281,156 +4771,156 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="28">
+      <c r="A35">
         <v>1</v>
       </c>
-      <c r="B35" s="28">
+      <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" t="s">
         <v>156</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="28">
+      <c r="A36">
         <v>1</v>
       </c>
-      <c r="B36" s="28">
+      <c r="B36">
         <v>2</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" t="s">
         <v>157</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D36" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="28">
+      <c r="A37">
         <v>1</v>
       </c>
-      <c r="B37" s="28">
+      <c r="B37">
         <v>3</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" t="s">
         <v>158</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="33">
+      <c r="A38">
         <v>2</v>
       </c>
-      <c r="B38" s="33">
+      <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" t="s">
         <v>156</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="28">
+      <c r="A39">
         <v>2</v>
       </c>
-      <c r="B39" s="28">
+      <c r="B39">
         <v>2</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" t="s">
         <v>157</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="28">
+      <c r="A40">
         <v>3</v>
       </c>
-      <c r="B40" s="28">
+      <c r="B40">
         <v>1</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="28">
+      <c r="A41">
         <v>3</v>
       </c>
-      <c r="B41" s="28">
+      <c r="B41">
         <v>2</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" t="s">
         <v>157</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="28">
+      <c r="A42">
         <v>4</v>
       </c>
-      <c r="B42" s="28">
+      <c r="B42">
         <v>1</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="28">
+      <c r="A43">
         <v>4</v>
       </c>
-      <c r="B43" s="28">
+      <c r="B43">
         <v>2</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" t="s">
         <v>157</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D43" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="28">
+      <c r="A44">
         <v>4</v>
       </c>
-      <c r="B44" s="28">
+      <c r="B44">
         <v>3</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" t="s">
         <v>158</v>
       </c>
-      <c r="D44" s="33" t="s">
+      <c r="D44" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4440,347 +4930,298 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="28">
+      <c r="A51">
         <v>1</v>
       </c>
-      <c r="B51" s="31">
+      <c r="B51" s="22">
         <v>44670</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="33">
+      <c r="A52">
         <v>2</v>
       </c>
-      <c r="B52" s="31">
+      <c r="B52" s="22">
         <v>44671</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="28">
+      <c r="A53">
         <v>3</v>
       </c>
-      <c r="B53" s="31">
+      <c r="B53" s="22">
         <v>44670</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="28">
+      <c r="A54">
         <v>4</v>
       </c>
-      <c r="B54" s="31">
+      <c r="B54" s="22">
         <v>44670</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C54" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="28"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="28"/>
+      <c r="B55" s="22"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="28" t="s">
+      <c r="A57" t="s">
         <v>161</v>
       </c>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28" t="s">
+      <c r="C57" t="s">
         <v>137</v>
       </c>
-      <c r="D57" s="28"/>
       <c r="F57" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="32" t="s">
+      <c r="A58" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B58" s="40" t="s">
+      <c r="B58" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C58" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D58" s="28"/>
-      <c r="F58" s="40" t="s">
+      <c r="F58" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="G58" s="30" t="s">
+      <c r="G58" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H58" s="30" t="s">
+      <c r="H58" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="28">
+      <c r="A59">
         <v>1</v>
       </c>
-      <c r="B59" s="28">
+      <c r="B59">
         <v>1</v>
       </c>
-      <c r="C59" s="28">
+      <c r="C59">
         <v>1</v>
       </c>
-      <c r="D59" s="28"/>
       <c r="F59">
         <v>1</v>
       </c>
-      <c r="G59" s="28" t="s">
+      <c r="G59" t="s">
         <v>156</v>
       </c>
-      <c r="H59" s="28" t="s">
+      <c r="H59" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="28">
+      <c r="A60">
         <v>1</v>
       </c>
-      <c r="B60" s="28">
+      <c r="B60">
         <v>2</v>
       </c>
-      <c r="C60" s="28">
+      <c r="C60">
         <v>2</v>
       </c>
-      <c r="D60" s="28"/>
       <c r="F60">
         <v>2</v>
       </c>
-      <c r="G60" s="28" t="s">
+      <c r="G60" t="s">
         <v>157</v>
       </c>
-      <c r="H60" s="28" t="s">
+      <c r="H60" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="28">
+      <c r="A61">
         <v>1</v>
       </c>
-      <c r="B61" s="28">
+      <c r="B61">
         <v>3</v>
       </c>
-      <c r="C61" s="33">
+      <c r="C61">
         <v>3</v>
       </c>
-      <c r="D61" s="33"/>
       <c r="F61">
         <v>3</v>
       </c>
-      <c r="G61" s="33" t="s">
+      <c r="G61" t="s">
         <v>158</v>
       </c>
-      <c r="H61" s="33" t="s">
+      <c r="H61" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="33">
+      <c r="A62">
         <v>2</v>
       </c>
-      <c r="B62" s="33">
+      <c r="B62">
         <v>1</v>
       </c>
-      <c r="C62" s="33">
+      <c r="C62">
         <v>1</v>
       </c>
-      <c r="D62" s="28"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="28">
+      <c r="A63">
         <v>2</v>
       </c>
-      <c r="B63" s="28">
+      <c r="B63">
         <v>2</v>
       </c>
-      <c r="C63" s="28">
+      <c r="C63">
         <v>2</v>
       </c>
-      <c r="D63" s="28"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="28">
+      <c r="A64">
         <v>3</v>
       </c>
-      <c r="B64" s="28">
+      <c r="B64">
         <v>1</v>
       </c>
-      <c r="C64" s="28">
+      <c r="C64">
         <v>1</v>
       </c>
-      <c r="D64" s="28"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="28">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>3</v>
       </c>
-      <c r="B65" s="28">
+      <c r="B65">
         <v>2</v>
       </c>
-      <c r="C65" s="28">
+      <c r="C65">
         <v>2</v>
       </c>
-      <c r="D65" s="28"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="28">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
         <v>4</v>
       </c>
-      <c r="B66" s="28">
+      <c r="B66">
         <v>1</v>
       </c>
-      <c r="C66" s="28">
+      <c r="C66">
         <v>1</v>
       </c>
-      <c r="D66" s="28"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="28">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>4</v>
       </c>
-      <c r="B67" s="28">
+      <c r="B67">
         <v>2</v>
       </c>
-      <c r="C67" s="28">
+      <c r="C67">
         <v>2</v>
       </c>
-      <c r="D67" s="28"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="28">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>4</v>
       </c>
-      <c r="B68" s="28">
+      <c r="B68">
         <v>3</v>
       </c>
-      <c r="C68" s="28">
+      <c r="C68">
         <v>3</v>
       </c>
-      <c r="D68" s="33"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="28"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="28" t="s">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>160</v>
       </c>
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="32" t="s">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C74" s="30" t="s">
+      <c r="C74" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D74" s="28"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="28">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
         <v>1</v>
       </c>
-      <c r="B75" s="31">
+      <c r="B75" s="22">
         <v>44670</v>
       </c>
-      <c r="C75" s="28" t="s">
+      <c r="C75" t="s">
         <v>98</v>
       </c>
-      <c r="D75" s="28"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="33">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>2</v>
       </c>
-      <c r="B76" s="31">
+      <c r="B76" s="22">
         <v>44671</v>
       </c>
-      <c r="C76" s="28" t="s">
+      <c r="C76" t="s">
         <v>98</v>
       </c>
-      <c r="D76" s="28"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="28">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
         <v>3</v>
       </c>
-      <c r="B77" s="31">
+      <c r="B77" s="22">
         <v>44670</v>
       </c>
-      <c r="C77" s="28" t="s">
+      <c r="C77" t="s">
         <v>101</v>
       </c>
-      <c r="D77" s="28"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="28">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78">
         <v>4</v>
       </c>
-      <c r="B78" s="31">
+      <c r="B78" s="22">
         <v>44670</v>
       </c>
-      <c r="C78" s="28" t="s">
+      <c r="C78" t="s">
         <v>98</v>
       </c>
-      <c r="D78" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4793,18 +5234,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067CF904-8B1C-4137-9A7A-63D340158A32}">
-  <dimension ref="A2:V15"/>
+  <dimension ref="A2:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.21875" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -4814,21 +5261,33 @@
       <c r="E2" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4845,6 +5304,18 @@
       <c r="F4" t="s">
         <v>126</v>
       </c>
+      <c r="I4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -4859,6 +5330,46 @@
       <c r="F5" t="s">
         <v>128</v>
       </c>
+      <c r="I5" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" t="s">
+        <v>127</v>
+      </c>
+      <c r="L5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L7" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -4870,24 +5381,36 @@
       <c r="I10" t="s">
         <v>133</v>
       </c>
-      <c r="P10" s="29" t="s">
+      <c r="P10" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="V10" s="29" t="s">
+      <c r="V10" s="21" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4904,6 +5427,12 @@
       <c r="F12" t="s">
         <v>112</v>
       </c>
+      <c r="I12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -4940,8 +5469,136 @@
       <c r="B15" t="s">
         <v>120</v>
       </c>
+      <c r="E15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="P19" s="21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>91</v>
+      </c>
+      <c r="B20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>